--- a/POLIZA_VIDA_ENDOSO.xlsx
+++ b/POLIZA_VIDA_ENDOSO.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' VIEW_PROPIEDAD_VALORES' AS TABLA FROM INTERSEGURO.VIEW_PROPIEDAD_VALORES UNION ALL</t>
+          <t>SELECT COUNT(*),'VIEW_PROPIEDAD_VALORES' AS TABLA FROM INTERSEGURO.VIEW_PROPIEDAD_VALORES UNION ALL</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' TRUNCATABLA_TMP' AS TABLA FROM INTERSEGUROR.TRUNCATABLA_TMP UNION ALL</t>
+          <t>SELECT COUNT(*),'TRUNCATABLA_TMP' AS TABLA FROM INTERSEGUROR.TRUNCATABLA_TMP UNION ALL</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' POLIZA_VIDA_ENDOSO_DET' AS TABLA FROM INTERSEGUROR.POLIZA_VIDA_ENDOSO_DET UNION ALL</t>
+          <t>SELECT COUNT(*),'POLIZA_VIDA_ENDOSO_DET' AS TABLA FROM INTERSEGUROR.POLIZA_VIDA_ENDOSO_DET UNION ALL</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' ENDOSARVIDA' AS TABLA FROM INTERSEGURO.ENDOSARVIDA UNION ALL</t>
+          <t>SELECT COUNT(*),'ENDOSARVIDA' AS TABLA FROM INTERSEGURO.ENDOSARVIDA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' EVENTDCO' AS TABLA FROM INTERSEGURO.EVENTDCO UNION ALL</t>
+          <t>SELECT COUNT(*),'EVENTDCO' AS TABLA FROM INTERSEGURO.EVENTDCO UNION ALL</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' ENDOSARACC' AS TABLA FROM INTERSEGURO.ENDOSARACC UNION ALL</t>
+          <t>SELECT COUNT(*),'ENDOSARACC' AS TABLA FROM INTERSEGURO.ENDOSARACC UNION ALL</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' ENDOSARSURA' AS TABLA FROM INTERSEGURO.ENDOSARSURA UNION ALL</t>
+          <t>SELECT COUNT(*),'ENDOSARSURA' AS TABLA FROM INTERSEGURO.ENDOSARSURA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' ENDOSARPROPUESTA' AS TABLA FROM INTERSEGURO.ENDOSARPROPUESTA UNION ALL</t>
+          <t>SELECT COUNT(*),'ENDOSARPROPUESTA' AS TABLA FROM INTERSEGURO.ENDOSARPROPUESTA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' ENDOSARPROPRAPIDA' AS TABLA FROM INTERSEGURO.ENDOSARPROPRAPIDA UNION ALL</t>
+          <t>SELECT COUNT(*),'ENDOSARPROPRAPIDA' AS TABLA FROM INTERSEGURO.ENDOSARPROPRAPIDA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' DERIVARCOMERCIAL' AS TABLA FROM INTERSEGURO.DERIVARCOMERCIAL UNION ALL</t>
+          <t>SELECT COUNT(*),'DERIVARCOMERCIAL' AS TABLA FROM INTERSEGURO.DERIVARCOMERCIAL UNION ALL</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' RECIBIRDOCUMENTO' AS TABLA FROM INTERSEGURO.RECIBIRDOCUMENTO UNION ALL</t>
+          <t>SELECT COUNT(*),'RECIBIRDOCUMENTO' AS TABLA FROM INTERSEGURO.RECIBIRDOCUMENTO UNION ALL</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CAMBIARPROPUESTA' AS TABLA FROM INTERSEGURO.CAMBIARPROPUESTA UNION ALL</t>
+          <t>SELECT COUNT(*),'CAMBIARPROPUESTA' AS TABLA FROM INTERSEGURO.CAMBIARPROPUESTA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' OBSERVARPROPUESTA' AS TABLA FROM INTERSEGURO.OBSERVARPROPUESTA UNION ALL</t>
+          <t>SELECT COUNT(*),'OBSERVARPROPUESTA' AS TABLA FROM INTERSEGURO.OBSERVARPROPUESTA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' APLAZARPROPUESTA' AS TABLA FROM INTERSEGURO.APLAZARPROPUESTA UNION ALL</t>
+          <t>SELECT COUNT(*),'APLAZARPROPUESTA' AS TABLA FROM INTERSEGURO.APLAZARPROPUESTA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CADUCAR' AS TABLA FROM INTERSEGURO.CADUCAR UNION ALL</t>
+          <t>SELECT COUNT(*),'CADUCAR' AS TABLA FROM INTERSEGURO.CADUCAR UNION ALL</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CADUCARSURA' AS TABLA FROM INTERSEGURO.CADUCARSURA UNION ALL</t>
+          <t>SELECT COUNT(*),'CADUCARSURA' AS TABLA FROM INTERSEGURO.CADUCARSURA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' TERMINARVP' AS TABLA FROM INTERSEGURO.TERMINARVP UNION ALL</t>
+          <t>SELECT COUNT(*),'TERMINARVP' AS TABLA FROM INTERSEGURO.TERMINARVP UNION ALL</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' TERMINAREG' AS TABLA FROM INTERSEGURO.TERMINAREG UNION ALL</t>
+          <t>SELECT COUNT(*),'TERMINAREG' AS TABLA FROM INTERSEGURO.TERMINAREG UNION ALL</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CANCELARVP' AS TABLA FROM INTERSEGURO.CANCELARVP UNION ALL</t>
+          <t>SELECT COUNT(*),'CANCELARVP' AS TABLA FROM INTERSEGURO.CANCELARVP UNION ALL</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CANCELAREG' AS TABLA FROM INTERSEGURO.CANCELAREG UNION ALL</t>
+          <t>SELECT COUNT(*),'CANCELAREG' AS TABLA FROM INTERSEGURO.CANCELAREG UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CANCELARSURA' AS TABLA FROM INTERSEGURO.CANCELARSURA UNION ALL</t>
+          <t>SELECT COUNT(*),'CANCELARSURA' AS TABLA FROM INTERSEGURO.CANCELARSURA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CANCELARVE' AS TABLA FROM INTERSEGURO.CANCELARVE UNION ALL</t>
+          <t>SELECT COUNT(*),'CANCELARVE' AS TABLA FROM INTERSEGURO.CANCELARVE UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' RESCATAR' AS TABLA FROM INTERSEGURO.RESCATAR UNION ALL</t>
+          <t>SELECT COUNT(*),'RESCATAR' AS TABLA FROM INTERSEGURO.RESCATAR UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' POLICYDCO' AS TABLA FROM INTERSEGURO.POLICYDCO UNION ALL</t>
+          <t>SELECT COUNT(*),'POLICYDCO' AS TABLA FROM INTERSEGURO.POLICYDCO UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' PREPOLICY' AS TABLA FROM INTERSEGURO.PREPOLICY UNION ALL</t>
+          <t>SELECT COUNT(*),'PREPOLICY' AS TABLA FROM INTERSEGURO.PREPOLICY UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' RISKUNITDCO' AS TABLA FROM INTERSEGURO.RISKUNITDCO UNION ALL</t>
+          <t>SELECT COUNT(*),'RISKUNITDCO' AS TABLA FROM INTERSEGURO.RISKUNITDCO UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' CONTEXTOPERATION' AS TABLA FROM INTERSEGURO.CONTEXTOPERATION UNION ALL</t>
+          <t>SELECT COUNT(*),'CONTEXTOPERATION' AS TABLA FROM INTERSEGURO.CONTEXTOPERATION UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' STATE' AS TABLA FROM INTERSEGURO.STATE UNION ALL</t>
+          <t>SELECT COUNT(*),'STATE' AS TABLA FROM INTERSEGURO.STATE UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' EVENTTYPE' AS TABLA FROM INTERSEGURO.EVENTTYPE UNION ALL</t>
+          <t>SELECT COUNT(*),'EVENTTYPE' AS TABLA FROM INTERSEGURO.EVENTTYPE UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' POLIZA_VIDA' AS TABLA FROM INTERSEGUROR.POLIZA_VIDA UNION ALL</t>
+          <t>SELECT COUNT(*),'POLIZA_VIDA' AS TABLA FROM INTERSEGUROR.POLIZA_VIDA UNION ALL</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*),' PRODUCT' AS TABLA FROM INTERSEGURO.PRODUCT UNION ALL</t>
+          <t>SELECT COUNT(*),'PRODUCT' AS TABLA FROM INTERSEGURO.PRODUCT UNION ALL</t>
         </is>
       </c>
     </row>

--- a/POLIZA_VIDA_ENDOSO.xlsx
+++ b/POLIZA_VIDA_ENDOSO.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NAME_TABLE</t>
+          <t>TABLE_NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
